--- a/data/SJV Portfolio - Proportional x0.5 Buildout 2.2.2024.xlsx
+++ b/data/SJV Portfolio - Proportional x0.5 Buildout 2.2.2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Library/CloudStorage/OneDrive-RANDCorporation/CATF/SJV-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DAA427-49D2-364B-94BA-22062A513A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4F415-2480-4E46-9779-68B62ADE20BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{3EB5D1B8-C67A-D54A-8FBA-1478F31DBAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="102">
   <si>
     <t>Solar</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t xml:space="preserve">The 0.5x Proportional portfolio reflects a buildout of energy resources in the SJV consistent with the idea that the SJV contributes to the State's energy goals proportional to its resources, but scaled to half. That proportionality is defined differently for each feedstock to commodity pathway and should be thought of as a guiding principle rather than a strict rule. </t>
+  </si>
+  <si>
+    <t>Animal Fat</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB53C6B-5B9E-C54B-B988-736AC488AE93}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1785,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225537EC-F8DB-7B4E-B90C-2D6AA935C6A7}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3757,7 +3760,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
